--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A3BC5E-E04A-4B40-A709-B2FA505F1437}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A44EF1-F2DC-40E6-9F28-40C5CB61D087}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,13 +36,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーはジープに乗っている</t>
-    <rPh sb="10" eb="11">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ビーコン射撃について</t>
     <rPh sb="4" eb="6">
       <t>シャゲキ</t>
@@ -390,34 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム開始時の初期位置に移動させる。ただし、復活できる回数は３回までとする</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>フッカツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミサイルについての仕様</t>
     <rPh sb="9" eb="11">
       <t>シヨウ</t>
@@ -515,19 +480,72 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→プレイヤーは徒歩</t>
-    <rPh sb="7" eb="9">
-      <t>トホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>左スティックで移動</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徒歩で移動する</t>
+    <rPh sb="0" eb="2">
+      <t>トホ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器を持って移動</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場で５秒間の無敵。ただし、復活できる回数は３回までとする。射影機のカメラ演出発動中は無敵</t>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャエイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ハツドウチュウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ムテキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1920,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1941,7 +1959,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1951,62 +1969,62 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2258,82 +2276,82 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -2584,17 +2602,17 @@
     </row>
     <row r="89" spans="1:23">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -2843,22 +2861,22 @@
     </row>
     <row r="111" spans="1:23">
       <c r="A111" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
